--- a/REGULAR/ACCOUNTING/MIRANDA, MA. LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MA. LOIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8C686-5C1F-485C-9DEA-8E92449648DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B080AF-0253-4A0E-9971-2A3828DCA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="407">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1253,6 +1253,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>11/3,4</t>
   </si>
 </sst>
 </file>
@@ -1650,6 +1653,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1685,15 +1697,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3682,7 +3685,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K621" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -4060,12 +4063,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K621"/>
+  <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A590" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A599" activePane="bottomLeft"/>
       <selection activeCell="O9" sqref="O9"/>
-      <selection pane="bottomLeft" activeCell="E610" sqref="E610"/>
+      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4087,62 +4090,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4168,18 +4171,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4236,7 +4239,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>107.52600000000002</v>
+        <v>104.52600000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4248,7 +4251,7 @@
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="53" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="20"/>
@@ -4257,7 +4260,7 @@
         <v/>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="53" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="11"/>
@@ -17596,78 +17599,82 @@
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A605" s="39">
-        <v>44835</v>
-      </c>
+      <c r="A605" s="39"/>
       <c r="B605" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C605" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D605" s="38">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C605" s="13"/>
+      <c r="D605" s="38"/>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H605" s="38"/>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="38">
+        <v>1</v>
+      </c>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
       <c r="K605" s="47">
-        <v>44838</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606" s="39"/>
+      <c r="A606" s="39">
+        <v>44835</v>
+      </c>
       <c r="B606" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C606" s="13"/>
-      <c r="D606" s="38"/>
+        <v>46</v>
+      </c>
+      <c r="C606" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D606" s="38">
+        <v>1</v>
+      </c>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H606" s="38">
-        <v>1</v>
-      </c>
+      <c r="G606" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H606" s="38"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
       <c r="K606" s="47">
-        <v>44795</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A607" s="39">
-        <v>44866</v>
-      </c>
-      <c r="B607" s="20"/>
-      <c r="C607" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A607" s="39"/>
+      <c r="B607" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C607" s="13"/>
       <c r="D607" s="38"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H607" s="38"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="38">
+        <v>1</v>
+      </c>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
+      <c r="K607" s="47">
+        <v>44795</v>
+      </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="39">
-        <v>44896</v>
-      </c>
-      <c r="B608" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B608" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C608" s="13">
         <v>1.25</v>
       </c>
@@ -17678,23 +17685,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H608" s="38"/>
+      <c r="H608" s="38">
+        <v>2</v>
+      </c>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
+      <c r="K608" s="20" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609" s="46" t="s">
-        <v>405</v>
+      <c r="A609" s="39">
+        <v>44896</v>
       </c>
       <c r="B609" s="20"/>
-      <c r="C609" s="13"/>
+      <c r="C609" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D609" s="38"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G609" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H609" s="38"/>
       <c r="I609" s="9"/>
@@ -17702,19 +17715,17 @@
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A610" s="39">
-        <v>44927</v>
+      <c r="A610" s="46" t="s">
+        <v>405</v>
       </c>
       <c r="B610" s="20"/>
-      <c r="C610" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C610" s="13"/>
       <c r="D610" s="38"/>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H610" s="38"/>
       <c r="I610" s="9"/>
@@ -17722,15 +17733,19 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A611" s="39"/>
+      <c r="A611" s="39">
+        <v>44927</v>
+      </c>
       <c r="B611" s="20"/>
-      <c r="C611" s="13"/>
+      <c r="C611" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D611" s="38"/>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G611" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H611" s="38"/>
       <c r="I611" s="9"/>
@@ -17882,20 +17897,36 @@
       <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621" s="63"/>
-      <c r="B621" s="15"/>
-      <c r="C621" s="40"/>
-      <c r="D621" s="41"/>
-      <c r="E621" s="64"/>
-      <c r="F621" s="15"/>
-      <c r="G621" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H621" s="41"/>
-      <c r="I621" s="64"/>
-      <c r="J621" s="12"/>
-      <c r="K621" s="15"/>
+      <c r="A621" s="39"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="38"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="38"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622" s="51"/>
+      <c r="B622" s="15"/>
+      <c r="C622" s="40"/>
+      <c r="D622" s="41"/>
+      <c r="E622" s="52"/>
+      <c r="F622" s="15"/>
+      <c r="G622" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="41"/>
+      <c r="I622" s="52"/>
+      <c r="J622" s="12"/>
+      <c r="K622" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17961,17 +17992,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -18054,12 +18085,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="42"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
